--- a/biology/Botanique/Forêt_classée_de_la_Sota/Forêt_classée_de_la_Sota.xlsx
+++ b/biology/Botanique/Forêt_classée_de_la_Sota/Forêt_classée_de_la_Sota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_class%C3%A9e_de_la_Sota</t>
+          <t>Forêt_classée_de_la_Sota</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La forêt classée de la Sota est une aire protégée du Bénin, classée le 16 mai 1947[1], située au nord-est du pays, sur le territoire de la commune de Kandi dans le département de l'Alibori. Elle est arrosée par la Sota, un affluent du Niger en rive droite, qui lui donne son nom.
+La forêt classée de la Sota est une aire protégée du Bénin, classée le 16 mai 1947, située au nord-est du pays, sur le territoire de la commune de Kandi dans le département de l'Alibori. Elle est arrosée par la Sota, un affluent du Niger en rive droite, qui lui donne son nom.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_class%C3%A9e_de_la_Sota</t>
+          <t>Forêt_classée_de_la_Sota</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Milieu physique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est constituée de forêt claire et de savane boisée, avec une forte emprise agricole et de pâturage[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est constituée de forêt claire et de savane boisée, avec une forte emprise agricole et de pâturage. 
 	Types de sols
 	Végétation
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_class%C3%A9e_de_la_Sota</t>
+          <t>Forêt_classée_de_la_Sota</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1952 on signalait encore la présence d'éléphants dans la forêt de la Sota[3], mais comme celle de Goungoun, elle s'est appauvrie en faune. Cependant on peut encore y observer : oubéri (?), hippotrague, lycaon, hyène tachetée, panthère ou civette. Leur viande est vendue sur les marchés environnants. 
-La faune aquatique comprend surtout des Tilapia et des silures[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1952 on signalait encore la présence d'éléphants dans la forêt de la Sota, mais comme celle de Goungoun, elle s'est appauvrie en faune. Cependant on peut encore y observer : oubéri (?), hippotrague, lycaon, hyène tachetée, panthère ou civette. Leur viande est vendue sur les marchés environnants. 
+La faune aquatique comprend surtout des Tilapia et des silures.
 </t>
         </is>
       </c>
